--- a/discord/레벨.xlsx
+++ b/discord/레벨.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>480</v>
+        <v>685</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>435</v>
+        <v>1020</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>285</v>
+        <v>1090</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>45</v>
+        <v>780</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -601,9 +601,35 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>337106794633625602</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>484008376708104213</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>

--- a/discord/레벨.xlsx
+++ b/discord/레벨.xlsx
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>685</v>
+        <v>1295</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>670</v>
+        <v>1715</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1020</v>
+        <v>2185</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1090</v>
+        <v>1485</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65</v>
+        <v>600</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>240</v>
+        <v>1325</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -614,10 +614,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>450</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">

--- a/discord/레벨.xlsx
+++ b/discord/레벨.xlsx
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295</v>
+        <v>1315</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2185</v>
+        <v>2200</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>600</v>
+        <v>635</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>

--- a/discord/레벨.xlsx
+++ b/discord/레벨.xlsx
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1315</v>
+        <v>1390</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1715</v>
+        <v>1800</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1490</v>
+        <v>1885</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>635</v>
+        <v>670</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1325</v>
+        <v>1335</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>

--- a/discord/레벨.xlsx
+++ b/discord/레벨.xlsx
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1390</v>
+        <v>1430</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2200</v>
+        <v>2270</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1885</v>
+        <v>2065</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>565</v>
+        <v>620</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1335</v>
+        <v>1340</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>

--- a/discord/레벨.xlsx
+++ b/discord/레벨.xlsx
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1430</v>
+        <v>2195</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1800</v>
+        <v>1815</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2270</v>
+        <v>2685</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>360</v>
+        <v>635</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2065</v>
+        <v>2150</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>685</v>
+        <v>845</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>620</v>
+        <v>915</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1340</v>
+        <v>1365</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>860</v>
+        <v>1145</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>

--- a/discord/레벨.xlsx
+++ b/discord/레벨.xlsx
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2195</v>
+        <v>2375</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>635</v>
+        <v>715</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>

--- a/discord/레벨.xlsx
+++ b/discord/레벨.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2375</v>
+        <v>2435</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>715</v>
+        <v>755</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -630,6 +630,19 @@
         <v>15</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>185476724627210241</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>

--- a/discord/레벨.xlsx
+++ b/discord/레벨.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2435</v>
+        <v>2375</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>755</v>
+        <v>715</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -630,19 +630,6 @@
         <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>185476724627210241</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
